--- a/biology/Médecine/Jean_Burdin/Jean_Burdin.xlsx
+++ b/biology/Médecine/Jean_Burdin/Jean_Burdin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean Burdin, né en 1765 à Lyon et mort le 6 juillet 1835 à Villeneuve-le-Roi[1], est un médecin français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean Burdin, né en 1765 à Lyon et mort le 6 juillet 1835 à Villeneuve-le-Roi, est un médecin français.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Docteur en médecine à la Faculté de Paris, en 1803, Burdin était membre de l’Académie de médecine[2].
-Proche de la société des idéologues, il est au nombre des personnalités créditées par Saint-Simon[3], pour avoir contribué à l’élaboration du saint-simonisme, mis, avec son confrère Charles Bougon et l’historien Conrad Engelbert Oelsner au nombre des trois personnes[4],[5],  d’où lui viennent « une grande partie des idées[6] » qu’il a produites « pendant le cours de la longue carrière » qu’il a entreprise[7]. C’est sous son influence qu’il a suivi les cours de physique de l’École polytechnique. Saint-Simon l’a d’ailleurs aidé financièrement dans la publication de son grand œuvre, le Cours d’études médicales en 5 volumes, publié en 1803[8].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Docteur en médecine à la Faculté de Paris, en 1803, Burdin était membre de l’Académie de médecine.
+Proche de la société des idéologues, il est au nombre des personnalités créditées par Saint-Simon, pour avoir contribué à l’élaboration du saint-simonisme, mis, avec son confrère Charles Bougon et l’historien Conrad Engelbert Oelsner au nombre des trois personnes  d’où lui viennent « une grande partie des idées » qu’il a produites « pendant le cours de la longue carrière » qu’il a entreprise. C’est sous son influence qu’il a suivi les cours de physique de l’École polytechnique. Saint-Simon l’a d’ailleurs aidé financièrement dans la publication de son grand œuvre, le Cours d’études médicales en 5 volumes, publié en 1803.
 </t>
         </is>
       </c>
